--- a/biology/Médecine/Hôpital_Santa_Rita/Hôpital_Santa_Rita.xlsx
+++ b/biology/Médecine/Hôpital_Santa_Rita/Hôpital_Santa_Rita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Santa_Rita</t>
+          <t>Hôpital_Santa_Rita</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hôpital Santa Rita est une unité du complexe hospitalier de la Santa Casa de Misericórdia de Porto Alegre. C'est le leader et la référence brésilienne dans le diagnostic et toutes les formes de traitement de l'oncologie, possédant le plus grand parc radiothérapique du pays, et un laboratoire de médecine nucléaire de dernière génération.
  Portail des soins infirmiers   Portail du Rio Grande do Sul                    </t>
